--- a/va_facility_data_2025-02-20/Blackwell VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Blackwell%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Blackwell VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Blackwell%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R7b1c48914e1b4a3aa3042c425b2a1bf2"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R601e18e3e68b46aab3b225a348d89c1e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5a7335e7f8f349e7a530f39e981ec630"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R23d6bf72ea954c8aaa326a05d5704a71"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5e3608c8d9ef453da06946536a030d3c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R76e2d6bec279419a9d3d71835d894d3a"/>
   </x:sheets>
 </x:workbook>
 </file>
